--- a/default-mappings-xlsx/grabber/Grabber_Mapping_Salesforce_EN.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_Salesforce_EN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Grabber\Salesforce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFD0B92-869D-4A57-81D6-E1288BA17AD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4414B67A-86F7-419B-980F-4ECDC3254795}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -34,6 +34,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Valentin Schönrock</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{5E8DD8D7-B493-492D-8390-CE106B14AE5E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter "x", if the field must be filled</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{4458E1F9-E6B6-4A14-87F5-47F70A8D8E9C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter "x", if the field is not used</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="78">
   <si>
@@ -56,12 +94,6 @@
   </si>
   <si>
     <t>Salesforce: Account</t>
-  </si>
-  <si>
-    <t>SF: Custom Entity (optional)</t>
-  </si>
-  <si>
-    <t>Salesforce: Custom Entity</t>
   </si>
   <si>
     <t>snapADDY - Contact Fields</t>
@@ -300,12 +332,18 @@
   <si>
     <t>LeadSource</t>
   </si>
+  <si>
+    <t>SF: Additional Entity (optional)</t>
+  </si>
+  <si>
+    <t>Salesforce: Additional Entity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +419,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -443,21 +488,6 @@
       <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
       <right/>
       <top style="thick">
         <color rgb="FF9DA600"/>
@@ -953,19 +983,6 @@
       <left style="thick">
         <color rgb="FFFE6C36"/>
       </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
       <right/>
       <top style="thick">
         <color rgb="FFFE6C36"/>
@@ -1341,6 +1358,34 @@
       </top>
       <bottom style="thick">
         <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1365,153 +1410,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2267,11 +2312,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:D33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2295,7 +2340,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2323,1133 +2368,1133 @@
         <v>3</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="O4" s="77" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="O4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="S4" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="T4" s="79"/>
-      <c r="U4" s="80"/>
-      <c r="W4" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="80"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="S4" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="T4" s="88"/>
+      <c r="U4" s="89"/>
+      <c r="W4" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="89"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11" t="s">
+      <c r="H6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="I6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="S6" s="66" t="s">
+      <c r="S6" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="U6" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="W6" s="66" t="s">
+      <c r="W6" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="66" t="s">
         <v>11</v>
-      </c>
-      <c r="X6" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y6" s="68" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="22"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="22"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="70"/>
-      <c r="W7" s="69"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="70"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="21"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="68"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="68"/>
     </row>
-    <row r="8" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:25" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="G8" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="O8" s="32"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="34"/>
+      <c r="S8" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="T8" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-      <c r="G8" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="O8" s="33"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="35"/>
-      <c r="S8" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="T8" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="U8" s="72"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="72"/>
+      <c r="U8" s="70"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="70"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="G9" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" s="32"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="34"/>
+      <c r="S9" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="G9" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="34" t="s">
+      <c r="T9" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="O9" s="33"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="35"/>
-      <c r="S9" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="T9" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="U9" s="72"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="72"/>
+      <c r="U9" s="70"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="70"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="G10" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="O10" s="33"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="35"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="72"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="72"/>
+      <c r="A10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="G10" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" s="32"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="34"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="70"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="70"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
-      <c r="G11" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="O11" s="33"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="35"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="72"/>
-      <c r="W11" s="71"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="72"/>
+      <c r="A11" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="G11" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" s="32"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="34"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="70"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="70"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="G12" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="34"/>
+      <c r="O12" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="G12" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" s="33"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="35"/>
-      <c r="O12" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q12" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="S12" s="71"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="72"/>
-      <c r="W12" s="71"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="72"/>
+      <c r="Q12" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="S12" s="69"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="70"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="70"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="G13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
-      <c r="G13" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="21" t="s">
+      <c r="Q13" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="S13" s="69"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="70"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="70"/>
+    </row>
+    <row r="14" spans="1:25" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="O13" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="P13" s="21" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="G14" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="Q13" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="S13" s="71"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="72"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="72"/>
-    </row>
-    <row r="14" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="M14" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="O14" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="G14" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="O14" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="S14" s="71"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="72"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="72"/>
+      <c r="Q14" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="S14" s="69"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="70"/>
+      <c r="W14" s="69"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="70"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="G15" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="O15" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="G15" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K15" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="O15" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="P15" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q15" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="S15" s="73"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="72"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="72"/>
+      <c r="Q15" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="S15" s="71"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="70"/>
+      <c r="W15" s="69"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="70"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="G16" s="33" t="s">
+      <c r="A16" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="G16" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="M16" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="O16" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="L16" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="O16" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="P16" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q16" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="S16" s="71"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="72"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="72"/>
+      <c r="Q16" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="S16" s="69"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="70"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="70"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="G17" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
-      <c r="G17" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="M17" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="O17" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="P17" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q17" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="S17" s="71"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="72"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="72"/>
+      <c r="Q17" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="S17" s="69"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="70"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="70"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="G18" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K18" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="M18" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="O18" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="P18" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q18" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="S18" s="71"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="72"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="72"/>
+      <c r="A18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="G18" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="O18" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q18" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="S18" s="69"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="70"/>
+      <c r="W18" s="69"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="70"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="G19" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="O19" s="32"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="34"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="70"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="70"/>
+    </row>
+    <row r="20" spans="1:25" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
-      <c r="G19" s="33" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="G20" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K19" s="33" t="s">
+      <c r="H20" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="M19" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="O19" s="33"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="35"/>
-      <c r="S19" s="71"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="72"/>
-      <c r="W19" s="71"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="72"/>
-    </row>
-    <row r="20" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="G20" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K20" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="L20" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="M20" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="O20" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="P20" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q20" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="S20" s="71"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="72"/>
-      <c r="W20" s="71"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="72"/>
+      <c r="I20" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="O20" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="P20" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q20" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="S20" s="69"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="70"/>
+      <c r="W20" s="69"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="70"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
-      <c r="G21" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K21" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="L21" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="M21" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="O21" s="33"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="35"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="72"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="72"/>
+      <c r="A21" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="G21" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="K21" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="O21" s="32"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="34"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="70"/>
+      <c r="W21" s="69"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="70"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
-      <c r="G22" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K22" s="20"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="22"/>
-      <c r="O22" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="P22" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q22" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="S22" s="69"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="70"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="70"/>
+      <c r="A22" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="G22" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" s="19"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="21"/>
+      <c r="O22" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="P22" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q22" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="S22" s="67"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="68"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="68"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
-      <c r="G23" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K23" s="20"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="22"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="35"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="70"/>
-      <c r="W23" s="69"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="70"/>
+      <c r="A23" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="G23" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" s="19"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="21"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="34"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="68"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="68"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
-      <c r="G24" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="I24" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K24" s="20"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="22"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="35"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="70"/>
-      <c r="W24" s="69"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="70"/>
+      <c r="A24" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
+      <c r="G24" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="K24" s="19"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="21"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="34"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="68"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="68"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="51"/>
-      <c r="G25" s="52" t="s">
+      <c r="A25" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
+      <c r="G25" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="L25" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="M25" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="O25" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="H25" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="I25" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="K25" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="L25" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="M25" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="O25" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="P25" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q25" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="S25" s="74"/>
-      <c r="T25" s="75"/>
-      <c r="U25" s="76"/>
-      <c r="W25" s="74"/>
-      <c r="X25" s="75"/>
-      <c r="Y25" s="76"/>
+      <c r="P25" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q25" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S25" s="72"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="74"/>
+      <c r="W25" s="72"/>
+      <c r="X25" s="73"/>
+      <c r="Y25" s="74"/>
     </row>
     <row r="26" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G26" s="55"/>
-      <c r="I26" s="56"/>
-      <c r="K26" s="55"/>
-      <c r="M26" s="56"/>
-      <c r="O26" s="55"/>
-      <c r="Q26" s="56"/>
-      <c r="S26" s="55"/>
-      <c r="U26" s="56"/>
-      <c r="W26" s="55"/>
-      <c r="Y26" s="56"/>
+      <c r="G26" s="54"/>
+      <c r="I26" s="55"/>
+      <c r="K26" s="54"/>
+      <c r="M26" s="55"/>
+      <c r="O26" s="54"/>
+      <c r="Q26" s="55"/>
+      <c r="S26" s="54"/>
+      <c r="U26" s="55"/>
+      <c r="W26" s="54"/>
+      <c r="Y26" s="55"/>
     </row>
     <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58" t="s">
+      <c r="A27" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="I27" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="12" t="s">
+      <c r="K27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O27" s="12" t="s">
+      <c r="O27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="P27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q27" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="S27" s="12" t="s">
+      <c r="S27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="T27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="U27" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="T27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="U27" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="W27" s="12" t="s">
+      <c r="W27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="X27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y27" s="13" t="s">
         <v>11</v>
-      </c>
-      <c r="X27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y27" s="14" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="88"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="60"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="35"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="35"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="35"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="35"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="35"/>
+      <c r="A28" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="84"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="58"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="34"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="34"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="34"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="34"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="34"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="82"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="62"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="35"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="35"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="35"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="35"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="35"/>
+      <c r="A29" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="60"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="34"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="34"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="34"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="34"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="34"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="62"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="35"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="35"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="35"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="35"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="35"/>
+      <c r="A30" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="78"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="60"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="34"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="34"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="34"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="34"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="34"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="62"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="35"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="35"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="35"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="35"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="35"/>
+      <c r="A31" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="78"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="60"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="34"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="34"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="34"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="34"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="34"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="62"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="35"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="35"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="35"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="35"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="35"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="60"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="34"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="34"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="34"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="34"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="34"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="62"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="35"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="35"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="35"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="35"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="35"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="60"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="34"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="34"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="34"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="34"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="34"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="62"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="35"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="35"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="35"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="35"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="35"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="60"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="34"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="34"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="34"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="34"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="34"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="62"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="35"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="35"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="35"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="35"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="35"/>
+      <c r="A35" s="59"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="60"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="34"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="34"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="34"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="34"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="34"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="62"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="35"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="35"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="35"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="35"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="35"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="60"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="34"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="34"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="34"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="34"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="34"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="62"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="35"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="35"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="35"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="35"/>
-      <c r="W37" s="33"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="35"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="60"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="34"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="34"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="34"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="34"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="34"/>
     </row>
     <row r="38" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="63"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="64"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="54"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="54"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="54"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="54"/>
-      <c r="W38" s="52"/>
-      <c r="X38" s="53"/>
-      <c r="Y38" s="54"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="62"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="53"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="53"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="53"/>
+      <c r="S38" s="51"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="53"/>
+      <c r="W38" s="51"/>
+      <c r="X38" s="52"/>
+      <c r="Y38" s="53"/>
     </row>
     <row r="39" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -3463,6 +3508,11 @@
     <protectedRange sqref="P12:Q25" name="Contact Fields_3"/>
   </protectedRanges>
   <mergeCells count="16">
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
@@ -3474,11 +3524,6 @@
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
   </mergeCells>
   <conditionalFormatting sqref="A26:AG26 A25:G25 B9:G24 J9:K25 N8:AG11 N12:O25 R12:AG25 B8:F8 J8">
     <cfRule type="expression" dxfId="25" priority="39">
@@ -3588,12 +3633,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D25" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y28:Y38 U7:U25 Y7:Y25 U28:U38 Q28:Q38 I7:I25 Q7:Q25 M28:M38 I28:I38 M7:M25" xr:uid="{5EC9FB2D-F3B3-4F68-88B9-BC7DBE621DBB}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I25 M7:M25 Q7:Q25 U7:U25 Y7:Y25 I28:I38 M28:M38 Q28:Q38 U28:U38 Y28:Y38" xr:uid="{0BE3D8E5-F97D-475C-BA35-FE2F71EABFA3}">
+      <formula1>"text,picklist,multi-picklist,lookup,date,number,boolean"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/default-mappings-xlsx/grabber/Grabber_Mapping_Salesforce_EN.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_Salesforce_EN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\grabber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4414B67A-86F7-419B-980F-4ECDC3254795}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8740507D-06C8-41B9-B45F-0249BD598953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -282,39 +282,6 @@
     <t>Time of creation</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF9DA600"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Template-Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFE6C36"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Enter name of master-template here]</t>
-    </r>
-  </si>
-  <si>
     <t>this is a note</t>
   </si>
   <si>
@@ -337,13 +304,16 @@
   </si>
   <si>
     <t>Salesforce: Additional Entity</t>
+  </si>
+  <si>
+    <t>Grabber Mapping</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,13 +340,6 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF9DA600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1397,14 +1360,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1420,13 +1383,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1434,24 +1397,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
@@ -1465,24 +1428,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
@@ -1492,15 +1455,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1519,44 +1482,44 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2315,9 +2278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2339,8 +2300,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>69</v>
+      <c r="A1" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2368,32 +2329,32 @@
         <v>3</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="86" t="s">
+      <c r="G4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="O4" s="86" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="O4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="S4" s="87" t="s">
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="S4" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="T4" s="79"/>
+      <c r="U4" s="80"/>
+      <c r="W4" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="T4" s="88"/>
-      <c r="U4" s="89"/>
-      <c r="W4" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="89"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="80"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2479,7 +2440,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -2491,7 +2452,7 @@
         <v>12</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K8" s="32" t="s">
         <v>12</v>
@@ -2500,7 +2461,7 @@
         <v>12</v>
       </c>
       <c r="M8" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O8" s="32"/>
       <c r="P8" s="33"/>
@@ -2531,7 +2492,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K9" s="32" t="s">
         <v>15</v>
@@ -2540,7 +2501,7 @@
         <v>16</v>
       </c>
       <c r="M9" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O9" s="32"/>
       <c r="P9" s="33"/>
@@ -2571,7 +2532,7 @@
         <v>20</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K10" s="32" t="s">
         <v>19</v>
@@ -2580,7 +2541,7 @@
         <v>20</v>
       </c>
       <c r="M10" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O10" s="32"/>
       <c r="P10" s="33"/>
@@ -2607,7 +2568,7 @@
         <v>21</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K11" s="32" t="s">
         <v>21</v>
@@ -2616,7 +2577,7 @@
         <v>21</v>
       </c>
       <c r="M11" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O11" s="32"/>
       <c r="P11" s="33"/>
@@ -2643,7 +2604,7 @@
         <v>22</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="33"/>
@@ -2655,7 +2616,7 @@
         <v>24</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S12" s="69"/>
       <c r="T12" s="33"/>
@@ -2679,7 +2640,7 @@
         <v>25</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K13" s="19" t="s">
         <v>25</v>
@@ -2688,7 +2649,7 @@
         <v>26</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O13" s="19" t="s">
         <v>25</v>
@@ -2697,7 +2658,7 @@
         <v>27</v>
       </c>
       <c r="Q13" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S13" s="69"/>
       <c r="T13" s="33"/>
@@ -2721,7 +2682,7 @@
         <v>28</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K14" s="39" t="s">
         <v>28</v>
@@ -2730,7 +2691,7 @@
         <v>29</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O14" s="39" t="s">
         <v>28</v>
@@ -2739,7 +2700,7 @@
         <v>30</v>
       </c>
       <c r="Q14" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S14" s="69"/>
       <c r="T14" s="33"/>
@@ -2763,7 +2724,7 @@
         <v>32</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K15" s="35" t="s">
         <v>31</v>
@@ -2772,7 +2733,7 @@
         <v>33</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O15" s="35" t="s">
         <v>31</v>
@@ -2781,7 +2742,7 @@
         <v>34</v>
       </c>
       <c r="Q15" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S15" s="71"/>
       <c r="T15" s="36"/>
@@ -2805,7 +2766,7 @@
         <v>36</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K16" s="32" t="s">
         <v>35</v>
@@ -2814,7 +2775,7 @@
         <v>37</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O16" s="32" t="s">
         <v>35</v>
@@ -2823,7 +2784,7 @@
         <v>38</v>
       </c>
       <c r="Q16" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S16" s="69"/>
       <c r="T16" s="33"/>
@@ -2847,7 +2808,7 @@
         <v>39</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K17" s="32" t="s">
         <v>39</v>
@@ -2856,7 +2817,7 @@
         <v>40</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O17" s="32" t="s">
         <v>39</v>
@@ -2865,7 +2826,7 @@
         <v>41</v>
       </c>
       <c r="Q17" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S17" s="69"/>
       <c r="T17" s="33"/>
@@ -2889,7 +2850,7 @@
         <v>42</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K18" s="32" t="s">
         <v>42</v>
@@ -2898,7 +2859,7 @@
         <v>42</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O18" s="32" t="s">
         <v>42</v>
@@ -2907,7 +2868,7 @@
         <v>42</v>
       </c>
       <c r="Q18" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S18" s="69"/>
       <c r="T18" s="33"/>
@@ -2931,7 +2892,7 @@
         <v>44</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K19" s="32" t="s">
         <v>43</v>
@@ -2940,7 +2901,7 @@
         <v>44</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O19" s="32"/>
       <c r="P19" s="33"/>
@@ -2967,7 +2928,7 @@
         <v>45</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K20" s="39" t="s">
         <v>45</v>
@@ -2976,7 +2937,7 @@
         <v>45</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O20" s="39" t="s">
         <v>45</v>
@@ -2985,7 +2946,7 @@
         <v>45</v>
       </c>
       <c r="Q20" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S20" s="69"/>
       <c r="T20" s="33"/>
@@ -3009,7 +2970,7 @@
         <v>47</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K21" s="32" t="s">
         <v>47</v>
@@ -3018,7 +2979,7 @@
         <v>47</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O21" s="32"/>
       <c r="P21" s="33"/>
@@ -3045,7 +3006,7 @@
         <v>48</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K22" s="19"/>
       <c r="L22" s="20"/>
@@ -3057,7 +3018,7 @@
         <v>48</v>
       </c>
       <c r="Q22" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S22" s="67"/>
       <c r="T22" s="20"/>
@@ -3081,7 +3042,7 @@
         <v>49</v>
       </c>
       <c r="I23" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K23" s="19"/>
       <c r="L23" s="20"/>
@@ -3108,10 +3069,10 @@
         <v>51</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K24" s="19"/>
       <c r="L24" s="20"/>
@@ -3138,28 +3099,28 @@
         <v>52</v>
       </c>
       <c r="H25" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I25" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K25" s="51" t="s">
         <v>53</v>
       </c>
       <c r="L25" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M25" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O25" s="51" t="s">
         <v>54</v>
       </c>
       <c r="P25" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q25" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S25" s="72"/>
       <c r="T25" s="73"/>
@@ -3242,11 +3203,11 @@
       <c r="A28" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="84"/>
-      <c r="D28" s="85"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="89"/>
       <c r="E28" s="58"/>
       <c r="G28" s="32"/>
       <c r="H28" s="33"/>
@@ -3268,11 +3229,11 @@
       <c r="A29" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="77" t="s">
+      <c r="B29" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="83"/>
       <c r="E29" s="60"/>
       <c r="G29" s="32"/>
       <c r="H29" s="33"/>
@@ -3294,11 +3255,11 @@
       <c r="A30" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="78"/>
-      <c r="D30" s="79"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="83"/>
       <c r="E30" s="60"/>
       <c r="G30" s="32"/>
       <c r="H30" s="33"/>
@@ -3320,11 +3281,11 @@
       <c r="A31" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="77" t="s">
+      <c r="B31" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="78"/>
-      <c r="D31" s="79"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="83"/>
       <c r="E31" s="60"/>
       <c r="G31" s="32"/>
       <c r="H31" s="33"/>
@@ -3344,9 +3305,9 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="59"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="79"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="83"/>
       <c r="E32" s="60"/>
       <c r="G32" s="32"/>
       <c r="H32" s="33"/>
@@ -3366,9 +3327,9 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="59"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="79"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="83"/>
       <c r="E33" s="60"/>
       <c r="G33" s="32"/>
       <c r="H33" s="33"/>
@@ -3388,9 +3349,9 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="59"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="79"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
       <c r="E34" s="60"/>
       <c r="G34" s="32"/>
       <c r="H34" s="33"/>
@@ -3410,9 +3371,9 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="59"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="79"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="83"/>
       <c r="E35" s="60"/>
       <c r="G35" s="32"/>
       <c r="H35" s="33"/>
@@ -3432,9 +3393,9 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="59"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="79"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="83"/>
       <c r="E36" s="60"/>
       <c r="G36" s="32"/>
       <c r="H36" s="33"/>
@@ -3454,9 +3415,9 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="59"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="79"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="83"/>
       <c r="E37" s="60"/>
       <c r="G37" s="32"/>
       <c r="H37" s="33"/>
@@ -3476,9 +3437,9 @@
     </row>
     <row r="38" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="61"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="82"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="86"/>
       <c r="E38" s="62"/>
       <c r="G38" s="51"/>
       <c r="H38" s="52"/>
@@ -3508,11 +3469,6 @@
     <protectedRange sqref="P12:Q25" name="Contact Fields_3"/>
   </protectedRanges>
   <mergeCells count="16">
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
@@ -3524,6 +3480,11 @@
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B33:D33"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
   </mergeCells>
   <conditionalFormatting sqref="A26:AG26 A25:G25 B9:G24 J9:K25 N8:AG11 N12:O25 R12:AG25 B8:F8 J8">
     <cfRule type="expression" dxfId="25" priority="39">

--- a/default-mappings-xlsx/grabber/Grabber_Mapping_Salesforce_EN.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_Salesforce_EN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Grabber\Salesforce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFD0B92-869D-4A57-81D6-E1288BA17AD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F339B1B-9A9E-42E6-8A55-4AB6F9ABAB66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Checkbox">Tabelle1!$C$7:$D$25</definedName>
-    <definedName name="Field_Type">Tabelle1!$Y$28:$Y$38,Tabelle1!$Y$7:$Y$24,Tabelle1!$Y$25,Tabelle1!$U$7:$U$25,Tabelle1!$U$28:$U$38,Tabelle1!$Q$28:$Q$38,Tabelle1!$Q$7:$Q$25,Tabelle1!$M$7:$M$25,Tabelle1!$M$28:$M$38,Tabelle1!$I$28:$I$38,Tabelle1!$I$7:$I$25</definedName>
+    <definedName name="Checkbox">Tabelle1!$C$6:$D$24</definedName>
+    <definedName name="Field_Type">Tabelle1!$Y$27:$Y$37,Tabelle1!$Y$6:$Y$23,Tabelle1!$Y$24,Tabelle1!$U$6:$U$24,Tabelle1!$U$27:$U$37,Tabelle1!$Q$27:$Q$37,Tabelle1!$Q$6:$Q$24,Tabelle1!$M$6:$M$24,Tabelle1!$M$27:$M$37,Tabelle1!$I$27:$I$37,Tabelle1!$I$6:$I$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="77">
   <si>
     <t>CRM System: Salesforce</t>
   </si>
@@ -248,39 +248,6 @@
   </si>
   <si>
     <t>Time of creation</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF9DA600"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Template-Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFE6C36"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Enter name of master-template here]</t>
-    </r>
   </si>
   <si>
     <t>this is a note</t>
@@ -305,7 +272,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,23 +289,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF9DA600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1348,18 +1301,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1378,13 +1330,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -1392,24 +1344,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
@@ -1423,24 +1375,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
@@ -1451,15 +1403,15 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1474,44 +1426,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1823,13 +1775,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>771525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1901,13 +1853,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2268,10 +2220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
-  <dimension ref="A1:Y39"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:D33"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2293,1303 +2245,1293 @@
     <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:25" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="G3" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="O3" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="S3" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="87"/>
+      <c r="U3" s="88"/>
+      <c r="W3" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="88"/>
+    </row>
+    <row r="4" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="T5" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="W5" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="X5" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="21"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="21"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="69"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="69"/>
+    </row>
+    <row r="7" spans="1:25" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="G7" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" s="32"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="34"/>
+      <c r="S7" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="U7" s="71"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="71"/>
     </row>
-    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:25" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="G4" s="77" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="77" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="O4" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="S4" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="T4" s="79"/>
-      <c r="U4" s="80"/>
-      <c r="W4" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="80"/>
-    </row>
-    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="S6" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="T6" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="U6" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="W6" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="X6" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y6" s="68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="22"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="22"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="70"/>
-      <c r="W7" s="69"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="70"/>
-    </row>
-    <row r="8" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-      <c r="G8" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="O8" s="33"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="35"/>
-      <c r="S8" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="T8" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="U8" s="72"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="72"/>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31"/>
+      <c r="G8" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" s="32"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="34"/>
+      <c r="S8" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="71"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="71"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="G9" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="O9" s="33"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="35"/>
-      <c r="S9" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="T9" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="U9" s="72"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="72"/>
+      <c r="A9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="G9" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="O9" s="32"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="34"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="71"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="71"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="G10" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="O10" s="33"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="35"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="72"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="72"/>
+      <c r="A10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="G10" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="O10" s="32"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="34"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="71"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="71"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
-      <c r="G11" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="O11" s="33"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="35"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="72"/>
-      <c r="W11" s="71"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="72"/>
+      <c r="A11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="G11" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="34"/>
+      <c r="O11" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="S11" s="70"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="71"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="71"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="G12" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" s="33"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="35"/>
-      <c r="O12" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q12" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="S12" s="71"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="72"/>
-      <c r="W12" s="71"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="72"/>
+      <c r="A12" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="G12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="S12" s="70"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="71"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="71"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
-      <c r="G13" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="O13" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="P13" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q13" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="S13" s="71"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="72"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="72"/>
+    <row r="13" spans="1:25" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="G13" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="O13" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="S13" s="70"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="71"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="71"/>
     </row>
-    <row r="14" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="G14" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="O14" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="S14" s="71"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="72"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="72"/>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="G14" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="O14" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="P14" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="S14" s="72"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="71"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="71"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="G15" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K15" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="O15" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="P15" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q15" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="S15" s="73"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="72"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="72"/>
+      <c r="A15" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="G15" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="S15" s="70"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="71"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="71"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="G16" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="L16" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="O16" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="P16" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q16" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="S16" s="71"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="72"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="72"/>
+      <c r="A16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="G16" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="O16" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q16" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="S16" s="70"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="71"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="71"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
-      <c r="G17" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="M17" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="O17" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="P17" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q17" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="S17" s="71"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="72"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="72"/>
+      <c r="A17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="G17" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="O17" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q17" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="S17" s="70"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="71"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="71"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="G18" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K18" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="M18" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="O18" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="P18" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q18" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="S18" s="71"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="72"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="72"/>
+      <c r="A18" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="G18" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="O18" s="32"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="34"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="71"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="71"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
-      <c r="G19" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K19" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="M19" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="O19" s="33"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="35"/>
-      <c r="S19" s="71"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="72"/>
-      <c r="W19" s="71"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="72"/>
+    <row r="19" spans="1:25" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
+      <c r="G19" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="O19" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="P19" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q19" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="S19" s="70"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="71"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="71"/>
     </row>
-    <row r="20" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="G20" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K20" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="L20" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="M20" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="O20" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="P20" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q20" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="S20" s="71"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="72"/>
-      <c r="W20" s="71"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="72"/>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="G20" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="O20" s="32"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="34"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="71"/>
+      <c r="W20" s="70"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="71"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
-      <c r="G21" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K21" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="L21" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="M21" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="O21" s="33"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="35"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="72"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="72"/>
+      <c r="A21" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="G21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="K21" s="19"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="21"/>
+      <c r="O21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="P21" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q21" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="S21" s="68"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="69"/>
+      <c r="W21" s="68"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="69"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
-      <c r="G22" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K22" s="20"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="22"/>
-      <c r="O22" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="P22" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q22" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="S22" s="69"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="70"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="70"/>
+      <c r="A22" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="G22" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" s="19"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="21"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="34"/>
+      <c r="S22" s="68"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="69"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="69"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
-      <c r="G23" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" s="35" t="s">
+      <c r="A23" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="38"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="45"/>
+      <c r="G23" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="19"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="21"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="34"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="69"/>
+      <c r="W23" s="68"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="69"/>
+    </row>
+    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="50"/>
+      <c r="G24" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="K23" s="20"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="22"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="35"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="70"/>
-      <c r="W23" s="69"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="70"/>
+      <c r="K24" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="L24" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="M24" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="O24" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="P24" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q24" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="S24" s="73"/>
+      <c r="T24" s="74"/>
+      <c r="U24" s="75"/>
+      <c r="W24" s="73"/>
+      <c r="X24" s="74"/>
+      <c r="Y24" s="75"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
-      <c r="G24" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="I24" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K24" s="20"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="22"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="35"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="70"/>
-      <c r="W24" s="69"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="70"/>
+    <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="54"/>
+      <c r="I25" s="55"/>
+      <c r="K25" s="54"/>
+      <c r="M25" s="55"/>
+      <c r="O25" s="54"/>
+      <c r="Q25" s="55"/>
+      <c r="S25" s="54"/>
+      <c r="U25" s="55"/>
+      <c r="W25" s="54"/>
+      <c r="Y25" s="55"/>
     </row>
-    <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="51"/>
-      <c r="G25" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="I25" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="K25" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="L25" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="M25" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="O25" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="P25" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q25" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="S25" s="74"/>
-      <c r="T25" s="75"/>
-      <c r="U25" s="76"/>
-      <c r="W25" s="74"/>
-      <c r="X25" s="75"/>
-      <c r="Y25" s="76"/>
+    <row r="26" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="S26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="T26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U26" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="W26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="X26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y26" s="13" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="26" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G26" s="55"/>
-      <c r="I26" s="56"/>
-      <c r="K26" s="55"/>
-      <c r="M26" s="56"/>
-      <c r="O26" s="55"/>
-      <c r="Q26" s="56"/>
-      <c r="S26" s="55"/>
-      <c r="U26" s="56"/>
-      <c r="W26" s="55"/>
-      <c r="Y26" s="56"/>
+    <row r="27" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="83"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="59"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="34"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="34"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="34"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="34"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="34"/>
     </row>
-    <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O27" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="P27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q27" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="S27" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="T27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="U27" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="W27" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="X27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y27" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="88"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="60"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="35"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="35"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="35"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="35"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="35"/>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="77"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="61"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="34"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="34"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="34"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="34"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="34"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="82"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="62"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="35"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="35"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="35"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="35"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="35"/>
+      <c r="A29" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="77"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="61"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="34"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="34"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="34"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="34"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="34"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="62"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="35"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="35"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="35"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="35"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="35"/>
+      <c r="A30" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="77"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="61"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="34"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="34"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="34"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="34"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="34"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="62"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="35"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="35"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="35"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="35"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="35"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="61"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="34"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="34"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="34"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="34"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="34"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="62"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="35"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="35"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="35"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="35"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="35"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="61"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="34"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="34"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="34"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="34"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="34"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="62"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="35"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="35"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="35"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="35"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="35"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="61"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="34"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="34"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="34"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="34"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="34"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="62"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="35"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="35"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="35"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="35"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="35"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="61"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="34"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="34"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="34"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="34"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="34"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="62"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="35"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="35"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="35"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="35"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="35"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="61"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="34"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="34"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="34"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="34"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="34"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="62"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="35"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="35"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="35"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="35"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="35"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="61"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="34"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="34"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="34"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="34"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="34"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="62"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="35"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="35"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="35"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="35"/>
-      <c r="W37" s="33"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="35"/>
+    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="62"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="63"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="53"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="53"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="53"/>
+      <c r="S37" s="51"/>
+      <c r="T37" s="52"/>
+      <c r="U37" s="53"/>
+      <c r="W37" s="51"/>
+      <c r="X37" s="52"/>
+      <c r="Y37" s="53"/>
     </row>
-    <row r="38" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="63"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="64"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="54"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="54"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="54"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="54"/>
-      <c r="W38" s="52"/>
-      <c r="X38" s="53"/>
-      <c r="Y38" s="54"/>
-    </row>
-    <row r="39" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A7:X7 V20:X20 V8:X8 V14:X14 A9:G25 J9:K25 N9:X11 R21:X25 R20:T20 N12:O25 R12:X13 R15:X19 R14:T14 A8:T8" name="Contact Fields"/>
-    <protectedRange sqref="A28:Y38" name="Questionnaire"/>
-    <protectedRange sqref="A1" name="Titel"/>
-    <protectedRange sqref="H25 H9:I24" name="Contact Fields_1"/>
-    <protectedRange sqref="I25" name="Questionnaire_1"/>
-    <protectedRange sqref="L9:M25" name="Contact Fields_2"/>
-    <protectedRange sqref="P12:Q25" name="Contact Fields_3"/>
+    <protectedRange sqref="A6:X6 V19:X19 V7:X7 V13:X13 A8:G24 J8:K24 N8:X10 R20:X24 R19:T19 N11:O24 R11:X12 R14:X18 R13:T13 A7:T7" name="Contact Fields"/>
+    <protectedRange sqref="A27:Y37" name="Questionnaire"/>
+    <protectedRange sqref="H24 H8:I23" name="Contact Fields_1"/>
+    <protectedRange sqref="I24" name="Questionnaire_1"/>
+    <protectedRange sqref="L8:M24" name="Contact Fields_2"/>
+    <protectedRange sqref="P11:Q24" name="Contact Fields_3"/>
   </protectedRanges>
   <mergeCells count="16">
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B33:D33"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A26:AG26 A25:G25 B9:G24 J9:K25 N8:AG11 N12:O25 R12:AG25 B8:F8 J8">
+  <conditionalFormatting sqref="A25:AG25 A24:G24 B8:G23 J8:K24 N7:AG10 N11:O24 R11:AG24 B7:F7 J7">
     <cfRule type="expression" dxfId="25" priority="39">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="40">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W27:Y37">
+    <cfRule type="expression" dxfId="23" priority="37">
+      <formula>$C27="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="38">
+      <formula>$D27="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S27:U37">
+    <cfRule type="expression" dxfId="21" priority="35">
+      <formula>$C27="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="36">
+      <formula>$D27="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O27:Q37">
+    <cfRule type="expression" dxfId="19" priority="33">
+      <formula>$C27="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="34">
+      <formula>$D27="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:M37">
+    <cfRule type="expression" dxfId="17" priority="31">
+      <formula>$C27="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="32">
+      <formula>$D27="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:I37">
+    <cfRule type="expression" dxfId="15" priority="29">
+      <formula>$C27="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="30">
+      <formula>$D27="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:A23">
+    <cfRule type="expression" dxfId="13" priority="27">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="28">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24 H8:I23">
+    <cfRule type="expression" dxfId="11" priority="19">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="40">
+    <cfRule type="expression" dxfId="10" priority="20">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W28:Y38">
-    <cfRule type="expression" dxfId="23" priority="37">
-      <formula>$C28="x"</formula>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="expression" dxfId="9" priority="17">
+      <formula>$C24="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="38">
-      <formula>$D28="x"</formula>
+    <cfRule type="expression" dxfId="8" priority="18">
+      <formula>$D24="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S28:U38">
-    <cfRule type="expression" dxfId="21" priority="35">
-      <formula>$C28="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="36">
-      <formula>$D28="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O28:Q38">
-    <cfRule type="expression" dxfId="19" priority="33">
-      <formula>$C28="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="34">
-      <formula>$D28="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28:M38">
-    <cfRule type="expression" dxfId="17" priority="31">
-      <formula>$C28="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="32">
-      <formula>$D28="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28:I38">
-    <cfRule type="expression" dxfId="15" priority="29">
-      <formula>$C28="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="30">
-      <formula>$D28="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A24">
-    <cfRule type="expression" dxfId="13" priority="27">
+  <conditionalFormatting sqref="L8:M24">
+    <cfRule type="expression" dxfId="7" priority="13">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="28">
+    <cfRule type="expression" dxfId="6" priority="14">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25 H9:I24">
-    <cfRule type="expression" dxfId="11" priority="19">
-      <formula>$C9="x"</formula>
+  <conditionalFormatting sqref="P11:Q24">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$C11="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="20">
-      <formula>$D9="x"</formula>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$D11="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="expression" dxfId="9" priority="17">
-      <formula>$C25="x"</formula>
+  <conditionalFormatting sqref="G7:I7">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="18">
-      <formula>$D25="x"</formula>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9:M25">
-    <cfRule type="expression" dxfId="7" priority="13">
-      <formula>$C9="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="14">
-      <formula>$D9="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P12:Q25">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$C12="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$D12="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:I8">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:M8">
+  <conditionalFormatting sqref="K7:M7">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C8="x"</formula>
+      <formula>$C7="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D8="x"</formula>
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D25" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D24" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y28:Y38 U7:U25 Y7:Y25 U28:U38 Q28:Q38 I7:I25 Q7:Q25 M28:M38 I28:I38 M7:M25" xr:uid="{5EC9FB2D-F3B3-4F68-88B9-BC7DBE621DBB}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I24 I27:I37 M27:M37 M6:M24 Q6:Q24 Q27:Q37 U27:U37 U24 U6:U21 Y6:Y24 Y27:Y37 U22 U23" xr:uid="{F49109A3-03FE-4EBA-A701-AABC8E380E21}">
+      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/default-mappings-xlsx/grabber/Grabber_Mapping_Salesforce_EN.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_Salesforce_EN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F339B1B-9A9E-42E6-8A55-4AB6F9ABAB66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2205A585-2813-43C2-BDEF-9F8FE9FC0693}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="Checkbox">Tabelle1!$C$6:$D$24</definedName>
-    <definedName name="Field_Type">Tabelle1!$Y$27:$Y$37,Tabelle1!$Y$6:$Y$23,Tabelle1!$Y$24,Tabelle1!$U$6:$U$24,Tabelle1!$U$27:$U$37,Tabelle1!$Q$27:$Q$37,Tabelle1!$Q$6:$Q$24,Tabelle1!$M$6:$M$24,Tabelle1!$M$27:$M$37,Tabelle1!$I$27:$I$37,Tabelle1!$I$6:$I$24</definedName>
+    <definedName name="Field_Type">Tabelle1!$Y$27:$Y$35,Tabelle1!$Y$6:$Y$23,Tabelle1!$Y$24,Tabelle1!$U$6:$U$24,Tabelle1!$U$27:$U$35,Tabelle1!$Q$27:$Q$35,Tabelle1!$Q$6:$Q$24,Tabelle1!$M$6:$M$24,Tabelle1!$M$27:$M$35,Tabelle1!$I$27:$I$35,Tabelle1!$I$6:$I$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="73">
   <si>
     <t>CRM System: Salesforce</t>
   </si>
@@ -229,30 +229,15 @@
     <t>Recordtype</t>
   </si>
   <si>
-    <t>Campaign-ID</t>
-  </si>
-  <si>
-    <t>VR Title</t>
-  </si>
-  <si>
     <t>Created by</t>
   </si>
   <si>
     <t>Created on (Date)</t>
   </si>
   <si>
-    <t>Template-ID</t>
-  </si>
-  <si>
-    <t>Template title</t>
-  </si>
-  <si>
     <t>Time of creation</t>
   </si>
   <si>
-    <t>this is a note</t>
-  </si>
-  <si>
     <t>picklist</t>
   </si>
   <si>
@@ -266,6 +251,9 @@
   </si>
   <si>
     <t>LeadSource</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -373,7 +361,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="73">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -920,69 +908,6 @@
         <color rgb="FFFE6C36"/>
       </left>
       <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
       <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
@@ -1301,7 +1226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1410,22 +1335,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1435,41 +1365,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="18">
     <dxf>
       <font>
         <b val="0"/>
@@ -1612,94 +1524,6 @@
       <fill>
         <patternFill patternType="darkUp">
           <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -1860,7 +1684,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>4396</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2220,10 +2044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
-  <dimension ref="A1:Y38"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2266,39 +2090,41 @@
         <v>3</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="85" t="s">
+      <c r="K3" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="O3" s="85" t="s">
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="O3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="S3" s="86" t="s">
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="S3" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="87"/>
-      <c r="U3" s="88"/>
-      <c r="W3" s="86" t="s">
+      <c r="T3" s="82"/>
+      <c r="U3" s="83"/>
+      <c r="W3" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="88"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="83"/>
     </row>
     <row r="4" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10" t="s">
@@ -2331,22 +2157,22 @@
       <c r="Q5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="65" t="s">
+      <c r="S5" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="T5" s="66" t="s">
+      <c r="T5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="U5" s="67" t="s">
+      <c r="U5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="W5" s="65" t="s">
+      <c r="W5" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="X5" s="66" t="s">
+      <c r="X5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="Y5" s="67" t="s">
+      <c r="Y5" s="65" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2365,20 +2191,18 @@
       <c r="O6" s="19"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="21"/>
-      <c r="S6" s="68"/>
+      <c r="S6" s="66"/>
       <c r="T6" s="20"/>
-      <c r="U6" s="69"/>
-      <c r="W6" s="68"/>
+      <c r="U6" s="67"/>
+      <c r="W6" s="66"/>
       <c r="X6" s="20"/>
-      <c r="Y6" s="69"/>
+      <c r="Y6" s="67"/>
     </row>
     <row r="7" spans="1:25" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>71</v>
-      </c>
+      <c r="B7" s="23"/>
       <c r="C7" s="24"/>
       <c r="D7" s="25"/>
       <c r="E7" s="26"/>
@@ -2389,7 +2213,7 @@
         <v>14</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K7" s="32" t="s">
         <v>14</v>
@@ -2398,21 +2222,21 @@
         <v>14</v>
       </c>
       <c r="M7" s="34" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O7" s="32"/>
       <c r="P7" s="33"/>
       <c r="Q7" s="34"/>
-      <c r="S7" s="70" t="s">
+      <c r="S7" s="68" t="s">
         <v>15</v>
       </c>
       <c r="T7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="U7" s="71"/>
-      <c r="W7" s="70"/>
+      <c r="U7" s="69"/>
+      <c r="W7" s="68"/>
       <c r="X7" s="33"/>
-      <c r="Y7" s="71"/>
+      <c r="Y7" s="69"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
@@ -2428,8 +2252,8 @@
       <c r="H8" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="64" t="s">
-        <v>73</v>
+      <c r="I8" s="62" t="s">
+        <v>68</v>
       </c>
       <c r="K8" s="32" t="s">
         <v>17</v>
@@ -2438,21 +2262,21 @@
         <v>18</v>
       </c>
       <c r="M8" s="34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="O8" s="32"/>
       <c r="P8" s="33"/>
       <c r="Q8" s="34"/>
-      <c r="S8" s="72" t="s">
+      <c r="S8" s="70" t="s">
         <v>19</v>
       </c>
       <c r="T8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="71"/>
-      <c r="W8" s="70"/>
+      <c r="U8" s="69"/>
+      <c r="W8" s="68"/>
       <c r="X8" s="33"/>
-      <c r="Y8" s="71"/>
+      <c r="Y8" s="69"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -2469,7 +2293,7 @@
         <v>22</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K9" s="32" t="s">
         <v>21</v>
@@ -2478,17 +2302,17 @@
         <v>22</v>
       </c>
       <c r="M9" s="34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="O9" s="32"/>
       <c r="P9" s="33"/>
       <c r="Q9" s="34"/>
-      <c r="S9" s="70"/>
+      <c r="S9" s="68"/>
       <c r="T9" s="33"/>
-      <c r="U9" s="71"/>
-      <c r="W9" s="70"/>
+      <c r="U9" s="69"/>
+      <c r="W9" s="68"/>
       <c r="X9" s="33"/>
-      <c r="Y9" s="71"/>
+      <c r="Y9" s="69"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
@@ -2505,7 +2329,7 @@
         <v>23</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K10" s="32" t="s">
         <v>23</v>
@@ -2514,17 +2338,17 @@
         <v>23</v>
       </c>
       <c r="M10" s="34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="O10" s="32"/>
       <c r="P10" s="33"/>
       <c r="Q10" s="34"/>
-      <c r="S10" s="70"/>
+      <c r="S10" s="68"/>
       <c r="T10" s="33"/>
-      <c r="U10" s="71"/>
-      <c r="W10" s="70"/>
+      <c r="U10" s="69"/>
+      <c r="W10" s="68"/>
       <c r="X10" s="33"/>
-      <c r="Y10" s="71"/>
+      <c r="Y10" s="69"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
@@ -2541,7 +2365,7 @@
         <v>24</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="33"/>
@@ -2553,14 +2377,14 @@
         <v>26</v>
       </c>
       <c r="Q11" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="S11" s="70"/>
+        <v>68</v>
+      </c>
+      <c r="S11" s="68"/>
       <c r="T11" s="33"/>
-      <c r="U11" s="71"/>
-      <c r="W11" s="70"/>
+      <c r="U11" s="69"/>
+      <c r="W11" s="68"/>
       <c r="X11" s="33"/>
-      <c r="Y11" s="71"/>
+      <c r="Y11" s="69"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
@@ -2577,7 +2401,7 @@
         <v>27</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K12" s="19" t="s">
         <v>27</v>
@@ -2586,7 +2410,7 @@
         <v>28</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="O12" s="19" t="s">
         <v>27</v>
@@ -2595,14 +2419,14 @@
         <v>29</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="S12" s="70"/>
+        <v>68</v>
+      </c>
+      <c r="S12" s="68"/>
       <c r="T12" s="33"/>
-      <c r="U12" s="71"/>
-      <c r="W12" s="70"/>
+      <c r="U12" s="69"/>
+      <c r="W12" s="68"/>
       <c r="X12" s="33"/>
-      <c r="Y12" s="71"/>
+      <c r="Y12" s="69"/>
     </row>
     <row r="13" spans="1:25" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
@@ -2619,7 +2443,7 @@
         <v>30</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K13" s="39" t="s">
         <v>30</v>
@@ -2628,7 +2452,7 @@
         <v>31</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="O13" s="39" t="s">
         <v>30</v>
@@ -2637,14 +2461,14 @@
         <v>32</v>
       </c>
       <c r="Q13" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="S13" s="70"/>
+        <v>68</v>
+      </c>
+      <c r="S13" s="68"/>
       <c r="T13" s="33"/>
-      <c r="U13" s="71"/>
-      <c r="W13" s="70"/>
+      <c r="U13" s="69"/>
+      <c r="W13" s="68"/>
       <c r="X13" s="33"/>
-      <c r="Y13" s="71"/>
+      <c r="Y13" s="69"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
@@ -2661,7 +2485,7 @@
         <v>34</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K14" s="35" t="s">
         <v>33</v>
@@ -2670,7 +2494,7 @@
         <v>35</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="O14" s="35" t="s">
         <v>33</v>
@@ -2679,14 +2503,14 @@
         <v>36</v>
       </c>
       <c r="Q14" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="S14" s="72"/>
+        <v>68</v>
+      </c>
+      <c r="S14" s="70"/>
       <c r="T14" s="36"/>
-      <c r="U14" s="71"/>
-      <c r="W14" s="70"/>
+      <c r="U14" s="69"/>
+      <c r="W14" s="68"/>
       <c r="X14" s="33"/>
-      <c r="Y14" s="71"/>
+      <c r="Y14" s="69"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
@@ -2703,7 +2527,7 @@
         <v>38</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K15" s="32" t="s">
         <v>37</v>
@@ -2712,7 +2536,7 @@
         <v>39</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="O15" s="32" t="s">
         <v>37</v>
@@ -2721,14 +2545,14 @@
         <v>40</v>
       </c>
       <c r="Q15" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="S15" s="70"/>
+        <v>68</v>
+      </c>
+      <c r="S15" s="68"/>
       <c r="T15" s="33"/>
-      <c r="U15" s="71"/>
-      <c r="W15" s="70"/>
+      <c r="U15" s="69"/>
+      <c r="W15" s="68"/>
       <c r="X15" s="33"/>
-      <c r="Y15" s="71"/>
+      <c r="Y15" s="69"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
@@ -2745,7 +2569,7 @@
         <v>41</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K16" s="32" t="s">
         <v>41</v>
@@ -2754,7 +2578,7 @@
         <v>42</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="O16" s="32" t="s">
         <v>41</v>
@@ -2763,14 +2587,14 @@
         <v>43</v>
       </c>
       <c r="Q16" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="S16" s="70"/>
+        <v>68</v>
+      </c>
+      <c r="S16" s="68"/>
       <c r="T16" s="33"/>
-      <c r="U16" s="71"/>
-      <c r="W16" s="70"/>
+      <c r="U16" s="69"/>
+      <c r="W16" s="68"/>
       <c r="X16" s="33"/>
-      <c r="Y16" s="71"/>
+      <c r="Y16" s="69"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -2787,7 +2611,7 @@
         <v>44</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K17" s="32" t="s">
         <v>44</v>
@@ -2796,7 +2620,7 @@
         <v>44</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="O17" s="32" t="s">
         <v>44</v>
@@ -2805,14 +2629,14 @@
         <v>44</v>
       </c>
       <c r="Q17" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="S17" s="70"/>
+        <v>68</v>
+      </c>
+      <c r="S17" s="68"/>
       <c r="T17" s="33"/>
-      <c r="U17" s="71"/>
-      <c r="W17" s="70"/>
+      <c r="U17" s="69"/>
+      <c r="W17" s="68"/>
       <c r="X17" s="33"/>
-      <c r="Y17" s="71"/>
+      <c r="Y17" s="69"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
@@ -2829,7 +2653,7 @@
         <v>46</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K18" s="32" t="s">
         <v>45</v>
@@ -2838,17 +2662,17 @@
         <v>46</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="O18" s="32"/>
       <c r="P18" s="33"/>
       <c r="Q18" s="34"/>
-      <c r="S18" s="70"/>
+      <c r="S18" s="68"/>
       <c r="T18" s="33"/>
-      <c r="U18" s="71"/>
-      <c r="W18" s="70"/>
+      <c r="U18" s="69"/>
+      <c r="W18" s="68"/>
       <c r="X18" s="33"/>
-      <c r="Y18" s="71"/>
+      <c r="Y18" s="69"/>
     </row>
     <row r="19" spans="1:25" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
@@ -2865,7 +2689,7 @@
         <v>47</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K19" s="39" t="s">
         <v>47</v>
@@ -2874,7 +2698,7 @@
         <v>47</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="O19" s="39" t="s">
         <v>47</v>
@@ -2883,14 +2707,14 @@
         <v>47</v>
       </c>
       <c r="Q19" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="S19" s="70"/>
+        <v>68</v>
+      </c>
+      <c r="S19" s="68"/>
       <c r="T19" s="33"/>
-      <c r="U19" s="71"/>
-      <c r="W19" s="70"/>
+      <c r="U19" s="69"/>
+      <c r="W19" s="68"/>
       <c r="X19" s="33"/>
-      <c r="Y19" s="71"/>
+      <c r="Y19" s="69"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
@@ -2907,7 +2731,7 @@
         <v>49</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K20" s="32" t="s">
         <v>49</v>
@@ -2916,17 +2740,17 @@
         <v>49</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="O20" s="32"/>
       <c r="P20" s="33"/>
       <c r="Q20" s="34"/>
-      <c r="S20" s="70"/>
+      <c r="S20" s="68"/>
       <c r="T20" s="33"/>
-      <c r="U20" s="71"/>
-      <c r="W20" s="70"/>
+      <c r="U20" s="69"/>
+      <c r="W20" s="68"/>
       <c r="X20" s="33"/>
-      <c r="Y20" s="71"/>
+      <c r="Y20" s="69"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
@@ -2943,7 +2767,7 @@
         <v>50</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K21" s="19"/>
       <c r="L21" s="20"/>
@@ -2955,14 +2779,14 @@
         <v>50</v>
       </c>
       <c r="Q21" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="S21" s="68"/>
+        <v>68</v>
+      </c>
+      <c r="S21" s="66"/>
       <c r="T21" s="20"/>
-      <c r="U21" s="69"/>
-      <c r="W21" s="68"/>
+      <c r="U21" s="67"/>
+      <c r="W21" s="66"/>
       <c r="X21" s="20"/>
-      <c r="Y21" s="69"/>
+      <c r="Y21" s="67"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
@@ -2979,7 +2803,7 @@
         <v>51</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K22" s="19"/>
       <c r="L22" s="20"/>
@@ -2987,12 +2811,12 @@
       <c r="O22" s="19"/>
       <c r="P22" s="20"/>
       <c r="Q22" s="34"/>
-      <c r="S22" s="68"/>
+      <c r="S22" s="66"/>
       <c r="T22" s="20"/>
-      <c r="U22" s="69"/>
-      <c r="W22" s="68"/>
+      <c r="U22" s="67"/>
+      <c r="W22" s="66"/>
       <c r="X22" s="20"/>
-      <c r="Y22" s="69"/>
+      <c r="Y22" s="67"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
@@ -3006,10 +2830,10 @@
         <v>53</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I23" s="34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K23" s="19"/>
       <c r="L23" s="20"/>
@@ -3017,12 +2841,12 @@
       <c r="O23" s="19"/>
       <c r="P23" s="20"/>
       <c r="Q23" s="34"/>
-      <c r="S23" s="68"/>
+      <c r="S23" s="66"/>
       <c r="T23" s="20"/>
-      <c r="U23" s="69"/>
-      <c r="W23" s="68"/>
+      <c r="U23" s="67"/>
+      <c r="W23" s="66"/>
       <c r="X23" s="20"/>
-      <c r="Y23" s="69"/>
+      <c r="Y23" s="67"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="46" t="s">
@@ -3036,35 +2860,35 @@
         <v>54</v>
       </c>
       <c r="H24" s="52" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I24" s="53" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K24" s="51" t="s">
         <v>55</v>
       </c>
       <c r="L24" s="52" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M24" s="53" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O24" s="51" t="s">
         <v>56</v>
       </c>
       <c r="P24" s="52" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q24" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="S24" s="73"/>
-      <c r="T24" s="74"/>
-      <c r="U24" s="75"/>
-      <c r="W24" s="73"/>
-      <c r="X24" s="74"/>
-      <c r="Y24" s="75"/>
+        <v>69</v>
+      </c>
+      <c r="S24" s="71"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="73"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="73"/>
     </row>
     <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G25" s="54"/>
@@ -3078,7 +2902,7 @@
       <c r="W25" s="54"/>
       <c r="Y25" s="55"/>
     </row>
-    <row r="26" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
         <v>57</v>
       </c>
@@ -3136,15 +2960,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="82" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84"/>
+        <v>65</v>
+      </c>
+      <c r="B27" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="75"/>
+      <c r="D27" s="76"/>
       <c r="E27" s="59"/>
       <c r="G27" s="32"/>
       <c r="H27" s="33"/>
@@ -3163,15 +2987,15 @@
       <c r="Y27" s="34"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="77"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="61"/>
+      <c r="A28" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="75"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="59"/>
       <c r="G28" s="32"/>
       <c r="H28" s="33"/>
       <c r="I28" s="34"/>
@@ -3189,15 +3013,11 @@
       <c r="Y28" s="34"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="77"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="61"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="59"/>
       <c r="G29" s="32"/>
       <c r="H29" s="33"/>
       <c r="I29" s="34"/>
@@ -3215,15 +3035,11 @@
       <c r="Y29" s="34"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="77"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="61"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="59"/>
       <c r="G30" s="32"/>
       <c r="H30" s="33"/>
       <c r="I30" s="34"/>
@@ -3241,11 +3057,11 @@
       <c r="Y30" s="34"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="60"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="61"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="59"/>
       <c r="G31" s="32"/>
       <c r="H31" s="33"/>
       <c r="I31" s="34"/>
@@ -3263,11 +3079,11 @@
       <c r="Y31" s="34"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="60"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="61"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="59"/>
       <c r="G32" s="32"/>
       <c r="H32" s="33"/>
       <c r="I32" s="34"/>
@@ -3285,11 +3101,11 @@
       <c r="Y32" s="34"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="60"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="61"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="59"/>
       <c r="G33" s="32"/>
       <c r="H33" s="33"/>
       <c r="I33" s="34"/>
@@ -3307,11 +3123,11 @@
       <c r="Y33" s="34"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="60"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="61"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="59"/>
       <c r="G34" s="32"/>
       <c r="H34" s="33"/>
       <c r="I34" s="34"/>
@@ -3328,145 +3144,67 @@
       <c r="X34" s="33"/>
       <c r="Y34" s="34"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="60"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="78"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="79"/>
       <c r="E35" s="61"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="34"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="34"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="34"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="34"/>
-      <c r="W35" s="32"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="34"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="60"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="61"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="34"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="34"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="34"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="34"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="34"/>
-    </row>
-    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="62"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="63"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="53"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="53"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="53"/>
-      <c r="S37" s="51"/>
-      <c r="T37" s="52"/>
-      <c r="U37" s="53"/>
-      <c r="W37" s="51"/>
-      <c r="X37" s="52"/>
-      <c r="Y37" s="53"/>
-    </row>
-    <row r="38" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="53"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="53"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="53"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="53"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="53"/>
+    </row>
+    <row r="36" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="A6:X6 V19:X19 V7:X7 V13:X13 A8:G24 J8:K24 N8:X10 R20:X24 R19:T19 N11:O24 R11:X12 R14:X18 R13:T13 A7:T7" name="Contact Fields"/>
-    <protectedRange sqref="A27:Y37" name="Questionnaire"/>
+    <protectedRange sqref="A27:Y35" name="Questionnaire"/>
     <protectedRange sqref="H24 H8:I23" name="Contact Fields_1"/>
     <protectedRange sqref="I24" name="Questionnaire_1"/>
     <protectedRange sqref="L8:M24" name="Contact Fields_2"/>
     <protectedRange sqref="P11:Q24" name="Contact Fields_3"/>
   </protectedRanges>
-  <mergeCells count="16">
+  <mergeCells count="14">
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:D31"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B32:D32"/>
   </mergeCells>
   <conditionalFormatting sqref="A25:AG25 A24:G24 B8:G23 J8:K24 N7:AG10 N11:O24 R11:AG24 B7:F7 J7">
-    <cfRule type="expression" dxfId="25" priority="39">
+    <cfRule type="expression" dxfId="17" priority="39">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="40">
+    <cfRule type="expression" dxfId="16" priority="40">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W27:Y37">
-    <cfRule type="expression" dxfId="23" priority="37">
+  <conditionalFormatting sqref="W27:Y35 S27:U35 O27:Q35 K27:M35 G27:I35">
+    <cfRule type="expression" dxfId="15" priority="37">
       <formula>$C27="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="38">
-      <formula>$D27="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S27:U37">
-    <cfRule type="expression" dxfId="21" priority="35">
-      <formula>$C27="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="36">
-      <formula>$D27="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O27:Q37">
-    <cfRule type="expression" dxfId="19" priority="33">
-      <formula>$C27="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="34">
-      <formula>$D27="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27:M37">
-    <cfRule type="expression" dxfId="17" priority="31">
-      <formula>$C27="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="32">
-      <formula>$D27="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:I37">
-    <cfRule type="expression" dxfId="15" priority="29">
-      <formula>$C27="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="30">
+    <cfRule type="expression" dxfId="14" priority="38">
       <formula>$D27="x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3530,7 +3268,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D24" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I24 I27:I37 M27:M37 M6:M24 Q6:Q24 Q27:Q37 U27:U37 U24 U6:U21 Y6:Y24 Y27:Y37 U22 U23" xr:uid="{F49109A3-03FE-4EBA-A701-AABC8E380E21}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I24 M6:M24 Q6:Q24 Y6:Y24 U6:U24 I27:I35 M27:M35 Q27:Q35 U27:U35 Y27:Y35" xr:uid="{F49109A3-03FE-4EBA-A701-AABC8E380E21}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
